--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,27 +49,24 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -88,39 +85,36 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
@@ -163,34 +154,34 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>learn</t>
   </si>
   <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>learn</t>
   </si>
   <si>
     <t>enjoy</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -712,16 +703,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7043010752688172</v>
+        <v>0.703125</v>
       </c>
       <c r="C6">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,37 +832,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6756756756756757</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.5810616929698709</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.5566714490674318</v>
+        <v>0.524896265560166</v>
       </c>
       <c r="L9">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="M9">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>309</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6262135922330098</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.533195020746888</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>225</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.4680327868852459</v>
+        <v>0.4950819672131148</v>
       </c>
       <c r="L11">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="M11">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5238095238095238</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.3809523809523809</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5014492753623189</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C13">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.3795180722891566</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>103</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4578313253012048</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.3792048929663608</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>203</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4251968503937008</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.3416666666666667</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4105263157894737</v>
+        <v>0.3984375</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.2447552447552448</v>
+        <v>0.2421875</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3828125</v>
+        <v>0.3933649289099526</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.2265625</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3696682464454976</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,31 +1400,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.2162162162162162</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3483146067415731</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.2088353413654618</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.301980198019802</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.1885964912280702</v>
+        <v>0.1850877192982456</v>
       </c>
       <c r="L20">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M20">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2525773195876289</v>
+        <v>0.215</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,31 +1550,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.1065627030539311</v>
+        <v>0.1187540558079169</v>
       </c>
       <c r="L21">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M21">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1375</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2355072463768116</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>0.09749303621169916</v>
@@ -1641,13 +1632,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2088607594936709</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,31 +1650,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.08579088471849866</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2065727699530517</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.02</v>
@@ -1709,25 +1700,25 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.05459387483355526</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>42</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -1741,13 +1732,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.195</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>161</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1758,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1910828025477707</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1785,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>127</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,13 +1784,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1884272997032641</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C27">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1811,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>547</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1819,25 +1810,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1815561959654179</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1845,25 +1836,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1740506329113924</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1871,25 +1862,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1479028697571744</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>386</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1897,25 +1888,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1428571428571428</v>
+        <v>0.09213483146067415</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>228</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1923,25 +1914,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09577464788732394</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>321</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1949,25 +1940,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08767123287671233</v>
+        <v>0.05236270753512133</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>333</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1975,103 +1966,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08705357142857142</v>
+        <v>0.0460122699386503</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.07781456953642384</v>
-      </c>
-      <c r="C35">
-        <v>47</v>
-      </c>
-      <c r="D35">
-        <v>51</v>
-      </c>
-      <c r="E35">
-        <v>0.08</v>
-      </c>
-      <c r="F35">
-        <v>0.92</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.06257982120051085</v>
-      </c>
-      <c r="C36">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>0.18</v>
-      </c>
-      <c r="F36">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.049079754601227</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>35</v>
-      </c>
-      <c r="E37">
-        <v>0.09</v>
-      </c>
-      <c r="F37">
-        <v>0.91</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
